--- a/Assets/RawData/Excel/DungeonData.xlsx
+++ b/Assets/RawData/Excel/DungeonData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\TheLast\Assets\RawData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14682DD-442D-416D-8373-2C3D20CF60B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94068A41-0E04-4E24-80ED-A7DC80EDD694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{16D00D96-5FC2-4E38-B66D-47453B7FEBE7}"/>
+    <workbookView xWindow="1128" yWindow="864" windowWidth="17280" windowHeight="8880" xr2:uid="{16D00D96-5FC2-4E38-B66D-47453B7FEBE7}"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonDatas" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>_spawnCount</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -55,6 +55,10 @@
   <si>
     <t>_level</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -136,13 +140,32 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="EnemyData"/>
+      <sheetName val="EnemyDatas"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2">
+            <v>10000001</v>
+          </cell>
+          <cell r="G2">
+            <v>10</v>
+          </cell>
+        </row>
         <row r="3">
           <cell r="A3">
             <v>10000002</v>
+          </cell>
+          <cell r="G3">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>10000003</v>
+          </cell>
+          <cell r="G4">
+            <v>20</v>
           </cell>
         </row>
       </sheetData>
@@ -448,15 +471,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73104AD5-5D53-4EEF-AD53-565D30F4C4EE}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -464,55 +490,70 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <f>[1]EnemyData!A2</f>
+        <f>[1]EnemyDatas!$A$2</f>
         <v>10000001</v>
       </c>
       <c r="C2" s="1">
-        <v>100</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <f>[1]EnemyDatas!$G2 *C2</f>
+        <v>160</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <f>[1]EnemyData!A3</f>
+        <f>[1]EnemyDatas!$A$3</f>
         <v>10000002</v>
       </c>
       <c r="C3" s="1">
-        <v>200</v>
-      </c>
-      <c r="D3" s="1">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <f>[1]EnemyDatas!$G3 *C3</f>
+        <v>196</v>
+      </c>
+      <c r="E3" s="1">
+        <v>15000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <f>[1]EnemyData!A4</f>
+        <f>[1]EnemyDatas!$A$4</f>
         <v>10000003</v>
       </c>
       <c r="C4" s="1">
-        <v>300</v>
-      </c>
-      <c r="D4" s="1">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <f>[1]EnemyDatas!$G4 *C4</f>
+        <v>240</v>
+      </c>
+      <c r="E4" s="1">
+        <v>20000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RawData/Excel/DungeonData.xlsx
+++ b/Assets/RawData/Excel/DungeonData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\TheLast\Assets\RawData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94068A41-0E04-4E24-80ED-A7DC80EDD694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76C48F5-369E-4CEE-AB90-A8D496B02350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1128" yWindow="864" windowWidth="17280" windowHeight="8880" xr2:uid="{16D00D96-5FC2-4E38-B66D-47453B7FEBE7}"/>
+    <workbookView xWindow="19580" yWindow="1410" windowWidth="17280" windowHeight="8880" xr2:uid="{16D00D96-5FC2-4E38-B66D-47453B7FEBE7}"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonDatas" sheetId="1" r:id="rId1"/>
@@ -175,9 +175,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -215,7 +215,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -321,7 +321,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -463,7 +463,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -474,7 +474,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
